--- a/material/translation/TermDefinitions/PersonGenderEnum.xlsx
+++ b/material/translation/TermDefinitions/PersonGenderEnum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_2788439F66335EC9CE631B9311B594C83ADE0C1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD49460-C484-4DC1-A85E-AA1E10FC1E7C}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_2788439F66335EC9CE631B9311B594C83ADE0C1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF0FB5C-AEF4-4136-B0FD-1F61A1F48236}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>Term</t>
   </si>
@@ -53,91 +53,100 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>The concept FEMALE is used for representing the human sexes in the context of interchange of information in the social sciences domain.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>The concept MALE is used for representing the human sexes in the context of interchange of information in the social sciences domain.</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>The concept NOT APPLICABLE is used in the context of interchange of information in the social sciences domain when none of the sexes can be represented.</t>
+  </si>
+  <si>
+    <t>Not known</t>
+  </si>
+  <si>
+    <t>The concept NOT KNOWN is used in the context of interchange of information in the social sciences domain when the human sex is unkown.</t>
+  </si>
+  <si>
+    <t>Not stated</t>
+  </si>
+  <si>
+    <t>The concept NOT STATED is used in the context of interchange of information in the social sciences domain when the human sex is not stated.</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>PersonGenderEnum</t>
+  </si>
+  <si>
+    <t>Human Sex</t>
   </si>
   <si>
     <t>xs:enumeration</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>PersonGenderEnum/Female</t>
+  </si>
+  <si>
+    <t>http://publications.europa.eu/resource/authority/human-sex/FEMALE</t>
+  </si>
+  <si>
     <t>xs:token</t>
   </si>
   <si>
-    <t>PersonGenderEnum</t>
-  </si>
-  <si>
     <t>PersonGenderEnum/Male</t>
   </si>
   <si>
-    <t>PersonGenderEnum/Female</t>
+    <t>http://publications.europa.eu/resource/authority/human-sex/MALE</t>
   </si>
   <si>
     <t>PersonGenderEnum/NAP</t>
   </si>
   <si>
+    <t>http://publications.europa.eu/resource/authority/human-sex/NAP</t>
+  </si>
+  <si>
     <t>PersonGenderEnum/NKN</t>
   </si>
   <si>
+    <t>http://publications.europa.eu/resource/authority/human-sex/NKN</t>
+  </si>
+  <si>
     <t>PersonGenderEnum/NST</t>
   </si>
   <si>
-    <t>Human Sex</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Not known</t>
-  </si>
-  <si>
-    <t>Not stated</t>
-  </si>
-  <si>
-    <t>The concept FEMALE is used for representing the human sexes in the context of interchange of information in the social sciences domain.</t>
-  </si>
-  <si>
-    <t>The concept MALE is used for representing the human sexes in the context of interchange of information in the social sciences domain.</t>
-  </si>
-  <si>
-    <t>The concept NOT APPLICABLE is used in the context of interchange of information in the social sciences domain when none of the sexes can be represented.</t>
-  </si>
-  <si>
-    <t>The concept NOT KNOWN is used in the context of interchange of information in the social sciences domain when the human sex is unkown.</t>
-  </si>
-  <si>
-    <t>The concept NOT STATED is used in the context of interchange of information in the social sciences domain when the human sex is not stated.</t>
-  </si>
-  <si>
-    <t>http://publications.europa.eu/resource/authority/human-sex/FEMALE</t>
-  </si>
-  <si>
-    <t>http://publications.europa.eu/resource/authority/human-sex/MALE</t>
-  </si>
-  <si>
-    <t>http://publications.europa.eu/resource/authority/human-sex/NAP</t>
-  </si>
-  <si>
-    <t>http://publications.europa.eu/resource/authority/human-sex/NKN</t>
-  </si>
-  <si>
     <t>http://publications.europa.eu/resource/authority/human-sex/NST</t>
+  </si>
+  <si>
+    <t>Person gender</t>
+  </si>
+  <si>
+    <t>List of human genders.</t>
   </si>
 </sst>
 </file>
@@ -182,10 +191,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -559,7 +569,7 @@
         <v>PersonGenderEnum</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -568,7 +578,7 @@
         <v>PersonGenderEnum/Female</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -577,7 +587,7 @@
         <v>PersonGenderEnum/Male</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -586,7 +596,7 @@
         <v>PersonGenderEnum/NAP</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,7 +605,7 @@
         <v>PersonGenderEnum/NKN</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -604,7 +614,7 @@
         <v>PersonGenderEnum/NST</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -622,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -632,7 +642,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,7 +707,7 @@
         <v>PersonGenderEnum</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -706,7 +716,7 @@
         <v>PersonGenderEnum/Female</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,7 +725,7 @@
         <v>PersonGenderEnum/Male</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,7 +734,7 @@
         <v>PersonGenderEnum/NAP</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -733,7 +743,7 @@
         <v>PersonGenderEnum/NKN</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -742,7 +752,7 @@
         <v>PersonGenderEnum/NST</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -760,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,7 +780,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,7 +845,7 @@
         <v>PersonGenderEnum</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,7 +854,7 @@
         <v>PersonGenderEnum/Female</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,7 +863,7 @@
         <v>PersonGenderEnum/Male</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +872,7 @@
         <v>PersonGenderEnum/NAP</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -871,7 +881,7 @@
         <v>PersonGenderEnum/NKN</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,7 +890,7 @@
         <v>PersonGenderEnum/NST</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -889,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -908,7 +918,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -917,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,7 +984,7 @@
         <v>PersonGenderEnum</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -983,7 +993,7 @@
         <v>PersonGenderEnum/Female</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,7 +1002,7 @@
         <v>PersonGenderEnum/Male</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,7 +1011,7 @@
         <v>PersonGenderEnum/NAP</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,7 +1020,7 @@
         <v>PersonGenderEnum/NKN</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1019,7 +1029,7 @@
         <v>PersonGenderEnum/NST</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1028,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1037,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,7 +1057,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,13 +1120,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" customWidth="1"/>
+    <col min="3" max="3" width="51.5546875" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1141,8 +1154,14 @@
         <f>Terms!A2</f>
         <v>PersonGenderEnum</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1151,13 +1170,13 @@
         <v>PersonGenderEnum/Female</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,13 +1185,13 @@
         <v>PersonGenderEnum/Male</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1181,13 +1200,13 @@
         <v>PersonGenderEnum/NAP</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1196,13 +1215,13 @@
         <v>PersonGenderEnum/NKN</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,22 +1230,19 @@
         <v>PersonGenderEnum/NST</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>Terms!A8</f>
         <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1250,82 +1268,85 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1340,18 +1361,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,6 +1587,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E986EC-7FDC-43C1-9D89-AA0303DD8FF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92927983-0A51-4957-B167-416398CE4BA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1574,16 +1603,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34E986EC-7FDC-43C1-9D89-AA0303DD8FF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A0DCFF2-9E5C-48A3-B79F-386263CF1D34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CD5AED-4F25-4DF1-ADE6-FA497F50B47A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
